--- a/downloads/list1_no_colon_adr_matched_rename.xlsx
+++ b/downloads/list1_no_colon_adr_matched_rename.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B451"/>
+  <dimension ref="A1:B449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>OMC</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>ROKU</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ROKU</t>
+          <t>JLL</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>JLL</t>
+          <t>SNDK</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>SNDK</t>
+          <t>ENTG</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ENTG</t>
+          <t>GGG</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>GGG</t>
+          <t>TEM</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -2958,47 +2958,47 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>CNH</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>CNH</t>
+          <t>COOP</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>COOP</t>
+          <t>SNX</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>SNX</t>
+          <t>UNM</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>FN</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>UNM</t>
+          <t>ICLR</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>SOLV</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3028,17 +3028,17 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ICLR</t>
+          <t>ALLY</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3048,17 +3048,17 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>IEX</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>SWKS</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>IEX</t>
+          <t>NCLH</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>BAX</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>NCLH</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>BAX</t>
+          <t>FDS</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>SFM</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>SEIC</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3128,47 +3128,47 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>SFM</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>SEIC</t>
+          <t>EXEL</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>MNDY</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>EXEL</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>MNDY</t>
+          <t>MOH</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>WCC</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>SSB</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -3198,17 +3198,17 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>WCC</t>
+          <t>IONS</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>SSB</t>
+          <t>UHAL</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -3218,17 +3218,17 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>IONS</t>
+          <t>IVZ</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>UHAL</t>
+          <t>ENSG</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>GNRC</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ENSG</t>
+          <t>ACI</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>GNRC</t>
+          <t>KNSL</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ACI</t>
+          <t>MGM</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>KNSL</t>
+          <t>ALV</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>BBIO</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ALV</t>
+          <t>CPB</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>BBIO</t>
+          <t>RRX</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>CPB</t>
+          <t>MDGL</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>RRX</t>
+          <t>DVA</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>MDGL</t>
+          <t>FYBR</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>DVA</t>
+          <t>PRI</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>FYBR</t>
+          <t>IDCC</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>PRI</t>
+          <t>TAP</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -3378,17 +3378,17 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>IDCC</t>
+          <t>APA</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>TAP</t>
+          <t>BROS</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -3398,27 +3398,27 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>APA</t>
+          <t>BPOP</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>BROS</t>
+          <t>NFG</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>BPOP</t>
+          <t>OSK</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>NFG</t>
+          <t>AN</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -3438,17 +3438,17 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>OSK</t>
+          <t>MKSI</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>AN</t>
+          <t>LAD</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -3458,27 +3458,27 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>MKSI</t>
+          <t>AVTR</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>LAD</t>
+          <t>TIGO</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>AVTR</t>
+          <t>HSIC</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>TIGO</t>
+          <t>COLB</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>LKQ</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>COLB</t>
+          <t>LW</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>LKQ</t>
+          <t>SIRI</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>LW</t>
+          <t>LOAR</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>SIRI</t>
+          <t>BIO</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>LOAR</t>
+          <t>JXN</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>BIO</t>
+          <t>UGI</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>JXN</t>
+          <t>JBTM</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>UGI</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -3588,17 +3588,17 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>JBTM</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>JHG</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -3608,17 +3608,17 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>OMF</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>JHG</t>
+          <t>CFLT</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>OMF</t>
+          <t>FLR</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>CFLT</t>
+          <t>KD</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>FLR</t>
+          <t>AMG</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>KD</t>
+          <t>ESAB</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>AMG</t>
+          <t>GATX</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ESAB</t>
+          <t>ARW</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>GATX</t>
+          <t>VNT</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ARW</t>
+          <t>LEGN</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>VNT</t>
+          <t>CLF</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>LEGN</t>
+          <t>KBR</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>CLF</t>
+          <t>RLI</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -3738,47 +3738,47 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>KBR</t>
+          <t>OZK</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>RLI</t>
+          <t>SLM</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>OZK</t>
+          <t>CRK</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>SLM</t>
+          <t>GPK</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>CRK</t>
+          <t>TGTX</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>GPK</t>
+          <t>CZR</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>TGTX</t>
+          <t>SWX</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>CZR</t>
+          <t>CRSP</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>SWX</t>
+          <t>UFPI</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>CRSP</t>
+          <t>MIR</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>UFPI</t>
+          <t>WEX</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>MIR</t>
+          <t>MTN</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -3858,17 +3858,17 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>WEX</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>MTN</t>
+          <t>MSGS</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -3878,17 +3878,17 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>MRP</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>MSGS</t>
+          <t>GHC</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>MRP</t>
+          <t>CACC</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>GHC</t>
+          <t>CORZ</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>CACC</t>
+          <t>LAZ</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -3928,17 +3928,17 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>CORZ</t>
+          <t>NOV</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>LAZ</t>
+          <t>FLG</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -3948,17 +3948,17 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>NOV</t>
+          <t>HHH</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>FLG</t>
+          <t>IEP</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>HHH</t>
+          <t>ABG</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>IEP</t>
+          <t>PTCT</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ABG</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -3998,17 +3998,17 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>PTCT</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>MRCY</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -4018,17 +4018,17 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>CNX</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>MRCY</t>
+          <t>ACA</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>CNX</t>
+          <t>MAC</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ACA</t>
+          <t>SFBS</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -4058,17 +4058,17 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>MAC</t>
+          <t>BGC</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>SFBS</t>
+          <t>RUSHA</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -4078,27 +4078,27 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>BGC</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>RUSHA</t>
+          <t>CNR</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>GLNG</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>CNR</t>
+          <t>PVH</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>GLNG</t>
+          <t>LB</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -4128,17 +4128,17 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>PVH</t>
+          <t>SXT</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>AGO</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>SXT</t>
+          <t>HRI</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -4158,17 +4158,17 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>AGO</t>
+          <t>MHO</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>HRI</t>
+          <t>WSC</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -4178,17 +4178,17 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>MHO</t>
+          <t>GNW</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>WSC</t>
+          <t>CXT</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>GNW</t>
+          <t>ATMU</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>CXT</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ATMU</t>
+          <t>CVI</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -4228,17 +4228,17 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>VAL</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>CVI</t>
+          <t>NSIT</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -4248,17 +4248,17 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>VAL</t>
+          <t>LNTH</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>NSIT</t>
+          <t>NVST</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>LNTH</t>
+          <t>RELY</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -4278,17 +4278,17 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>NVST</t>
+          <t>HCC</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>RELY</t>
+          <t>HAYW</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -4298,17 +4298,17 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>HCC</t>
+          <t>BHF</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>HAYW</t>
+          <t>GRBK</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>BHF</t>
+          <t>PRM</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>GRBK</t>
+          <t>NMIH</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>PRM</t>
+          <t>CNXC</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>NMIH</t>
+          <t>INDV</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>CNXC</t>
+          <t>PRGO</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>INDV</t>
+          <t>PENN</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -4378,47 +4378,47 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>PRGO</t>
+          <t>JOE</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>PENN</t>
+          <t>TDW</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>JOE</t>
+          <t>XMTR</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>TDW</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>XMTR</t>
+          <t>ABM</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>IAC</t>
+          <t>REVG</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -4438,17 +4438,17 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ABM</t>
+          <t>GTX</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>REVG</t>
+          <t>OGN</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -4458,17 +4458,17 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>GTX</t>
+          <t>DXC</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>OGN</t>
+          <t>FRPT</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>DXC</t>
+          <t>HAE</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>FRPT</t>
+          <t>OSW</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -4498,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>HAE</t>
+          <t>MSGE</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -4508,7 +4508,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>OSW</t>
+          <t>SPNT</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -4518,7 +4518,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>MSGE</t>
+          <t>SPHR</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -4528,7 +4528,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>SPNT</t>
+          <t>AMR</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -4538,7 +4538,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>SPHR</t>
+          <t>HTZ</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -4548,7 +4548,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>AMR</t>
+          <t>BKD</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -4558,7 +4558,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>HTZ</t>
+          <t>DHT</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -4568,7 +4568,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>BKD</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -4578,7 +4578,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>DHT</t>
+          <t>HE</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -4588,7 +4588,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>SOC</t>
+          <t>UNFI</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -4598,7 +4598,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>HE</t>
+          <t>CTRI</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -4608,7 +4608,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>UNFI</t>
+          <t>JBLU</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -4618,7 +4618,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>CTRI</t>
+          <t>TPB</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -4628,7 +4628,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>JBLU</t>
+          <t>WEN</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -4638,7 +4638,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>TPB</t>
+          <t>ALIT</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -4648,7 +4648,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>WEN</t>
+          <t>AAMI</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -4658,7 +4658,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>ALIT</t>
+          <t>HROW</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -4668,7 +4668,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>AAMI</t>
+          <t>ENOV</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -4678,7 +4678,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>HROW</t>
+          <t>IDT</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -4688,7 +4688,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>ENOV</t>
+          <t>ATEN</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -4698,7 +4698,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>IDT</t>
+          <t>CRTO</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -4708,7 +4708,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>ATEN</t>
+          <t>RPD</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -4718,7 +4718,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>CRTO</t>
+          <t>KW</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -4728,7 +4728,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>RPD</t>
+          <t>BBSI</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -4738,7 +4738,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>KW</t>
+          <t>GSL</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -4748,7 +4748,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>BBSI</t>
+          <t>SAFE</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -4758,7 +4758,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>GSL</t>
+          <t>ALGT</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -4768,7 +4768,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>SAFE</t>
+          <t>UAN</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -4778,7 +4778,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>ALGT</t>
+          <t>QNST</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -4788,7 +4788,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>UAN</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -4798,7 +4798,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>QNST</t>
+          <t>THS</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -4808,7 +4808,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>GDOT</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -4818,7 +4818,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>THS</t>
+          <t>ADTN</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -4828,7 +4828,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>GDOT</t>
+          <t>FPH</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -4838,7 +4838,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ADTN</t>
+          <t>THRY</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -4848,7 +4848,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>FPH</t>
+          <t>PBPB</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -4858,7 +4858,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>THRY</t>
+          <t>EHAB</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -4868,7 +4868,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>PBPB</t>
+          <t>RWAY</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -4878,17 +4878,15 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>EHAB</t>
-        </is>
-      </c>
-      <c r="B445" t="n">
-        <v>1</v>
-      </c>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>RWAY</t>
+          <t>ASUR</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -4906,7 +4904,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>ASUR</t>
+          <t>RVSB</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -4916,28 +4914,10 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="B449" t="inlineStr"/>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>RVSB</t>
-        </is>
-      </c>
-      <c r="B450" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
           <t>TSQ</t>
         </is>
       </c>
-      <c r="B451" t="n">
+      <c r="B449" t="n">
         <v>1</v>
       </c>
     </row>
